--- a/graphs/STM32F/bubble_sort/bubble_sort.xlsx
+++ b/graphs/STM32F/bubble_sort/bubble_sort.xlsx
@@ -6,8 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="bubble_sort" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="bubble_sort_not_optimized" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="BS CF_DR" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="BS CF_DC" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="BS CC_DR" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="BS CC_DC" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="BS_no CF_DR" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="BS_no CF_DC" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="BS_no CC_DR" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="BS_no CC_DC" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,62 +468,17 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>CF DR 24</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>CF DC 24</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>CC DR 24</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>CC DC 24</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CF DR 48</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>CF DC 48</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>CC DR 48</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CC DC 48</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>CF DR 72</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CF DC 72</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>CC DR 72</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>CC DC 72</t>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -531,37 +492,10 @@
         <v>15264.0800695675</v>
       </c>
       <c r="C2" t="n">
-        <v>15272.31181735893</v>
+        <v>25922.07840234243</v>
       </c>
       <c r="D2" t="n">
-        <v>12960.0137481181</v>
-      </c>
-      <c r="E2" t="n">
-        <v>12238.46470896002</v>
-      </c>
-      <c r="F2" t="n">
-        <v>25922.07840234243</v>
-      </c>
-      <c r="G2" t="n">
-        <v>25592.51411746152</v>
-      </c>
-      <c r="H2" t="n">
-        <v>25124.84573412728</v>
-      </c>
-      <c r="I2" t="n">
-        <v>23629.4703790612</v>
-      </c>
-      <c r="J2" t="n">
         <v>33000.71999170312</v>
-      </c>
-      <c r="K2" t="n">
-        <v>32572.1919878865</v>
-      </c>
-      <c r="L2" t="n">
-        <v>37359.25731425806</v>
-      </c>
-      <c r="M2" t="n">
-        <v>34975.37064636686</v>
       </c>
     </row>
     <row r="3">
@@ -574,37 +508,10 @@
         <v>0.26404</v>
       </c>
       <c r="C3" t="n">
-        <v>0.26498</v>
+        <v>0.16258</v>
       </c>
       <c r="D3" t="n">
-        <v>0.26408</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.30432</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.16258</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.1634</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.13222</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.1522</v>
-      </c>
-      <c r="J3" t="n">
         <v>0.14538</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.14628</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.08835999999999999</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.10172</v>
       </c>
     </row>
     <row r="4">
@@ -620,58 +527,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(2125.02, 2390.0)</t>
+          <t>(4719.72, 4882.3)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(2684.48, 2948.56)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>(3143.86, 3448.18)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(4719.72, 4882.3)</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>(5077.6, 5241.0)</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>(5535.36, 5667.58)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>(5862.84, 6015.04)</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
           <t>(7286.42, 7431.8)</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>(7627.1, 7773.38)</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>(8067.68, 8156.04)</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>(8351.32, 8453.04)</t>
-        </is>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>13300.08141517639</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13907.55797195434</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15832.22741889954</v>
       </c>
     </row>
   </sheetData>
@@ -685,7 +563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -696,62 +574,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>CF DR 24</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>CF DC 24</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>CC DR 24</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>CC DC 24</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>CF DR 48</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>CF DC 48</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>CC DR 48</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>CC DC 48</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>CF DR 72</t>
-        </is>
-      </c>
-      <c r="K1" s="2" t="inlineStr">
-        <is>
-          <t>CF DC 72</t>
-        </is>
-      </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>CC DR 72</t>
-        </is>
-      </c>
-      <c r="M1" s="2" t="inlineStr">
-        <is>
-          <t>CC DC 72</t>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -762,40 +595,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12969.08806880125</v>
+        <v>15272.31181735893</v>
       </c>
       <c r="C2" t="n">
-        <v>12515.04833303891</v>
+        <v>25592.51411746152</v>
       </c>
       <c r="D2" t="n">
-        <v>11816.03971790346</v>
-      </c>
-      <c r="E2" t="n">
-        <v>11447.14009878037</v>
-      </c>
-      <c r="F2" t="n">
-        <v>24256.71469408482</v>
-      </c>
-      <c r="G2" t="n">
-        <v>23737.43253771932</v>
-      </c>
-      <c r="H2" t="n">
-        <v>23376.53726376104</v>
-      </c>
-      <c r="I2" t="n">
-        <v>22318.32283818596</v>
-      </c>
-      <c r="J2" t="n">
-        <v>35152.42749852557</v>
-      </c>
-      <c r="K2" t="n">
-        <v>34187.15324876218</v>
-      </c>
-      <c r="L2" t="n">
-        <v>34376.51308432106</v>
-      </c>
-      <c r="M2" t="n">
-        <v>33009.48769633158</v>
+        <v>32572.1919878865</v>
       </c>
     </row>
     <row r="3">
@@ -805,40 +611,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.10376</v>
+        <v>0.26498</v>
       </c>
       <c r="C3" t="n">
-        <v>1.15382</v>
+        <v>0.1634</v>
       </c>
       <c r="D3" t="n">
-        <v>1.10322</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.17336</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.56614</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.59204</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.55124</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.5866</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.39104</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.40852</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.36732</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.39098</v>
+        <v>0.14628</v>
       </c>
     </row>
     <row r="4">
@@ -849,63 +628,670 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>(2125.02, 2390.0)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>(5077.6, 5241.0)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>(7627.1, 7773.38)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>13354.62871170044</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13799.9954624176</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15723.37880516052</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>intensity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12960.0137481181</v>
+      </c>
+      <c r="C2" t="n">
+        <v>25124.84573412728</v>
+      </c>
+      <c r="D2" t="n">
+        <v>37359.25731425806</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.26408</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.13222</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08835999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>(2684.48, 2948.56)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>(5535.36, 5667.58)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>(8067.68, 8156.04)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>11294.18542098999</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10962.62343978882</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10893.51112174988</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>intensity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12238.46470896002</v>
+      </c>
+      <c r="C2" t="n">
+        <v>23629.4703790612</v>
+      </c>
+      <c r="D2" t="n">
+        <v>34975.37064636686</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.30432</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1522</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.10172</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>(3143.86, 3448.18)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>(5862.84, 6015.04)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>(8351.32, 8453.04)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>12290.55161476135</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11868.13779258728</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11740.39251708984</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>intensity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12969.08806880125</v>
+      </c>
+      <c r="C2" t="n">
+        <v>24256.71469408482</v>
+      </c>
+      <c r="D2" t="n">
+        <v>35152.42749852557</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.10376</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.56614</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.39104</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>(2725.36, 3829.12)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>(9216.28, 9782.42)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>(13468.52, 13859.56)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>47238.71013450623</v>
+      </c>
+      <c r="C5" t="n">
+        <v>45317.89830780029</v>
+      </c>
+      <c r="D5" t="n">
+        <v>45361.81732177735</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>intensity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12515.04833303891</v>
+      </c>
+      <c r="C2" t="n">
+        <v>23737.43253771932</v>
+      </c>
+      <c r="D2" t="n">
+        <v>34187.15324876218</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.15382</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.59204</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.40852</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>(4024.4, 5178.22)</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>(9977.72, 10569.76)</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>(14054.72, 14463.24)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>47652.37312316895</v>
+      </c>
+      <c r="C5" t="n">
+        <v>46376.58154678345</v>
+      </c>
+      <c r="D5" t="n">
+        <v>46088.24828910827</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>intensity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11816.03971790346</v>
+      </c>
+      <c r="C2" t="n">
+        <v>23376.53726376104</v>
+      </c>
+      <c r="D2" t="n">
+        <v>34376.51308432106</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.10322</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.55124</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.36732</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>(5472.76, 6575.98)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>(10864.16, 11415.4)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>(14757.6, 15124.92)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>43017.78141403199</v>
+      </c>
+      <c r="C5" t="n">
+        <v>42524.07192420959</v>
+      </c>
+      <c r="D5" t="n">
+        <v>41669.69659423827</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>intensity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11447.14009878037</v>
+      </c>
+      <c r="C2" t="n">
+        <v>22318.32283818596</v>
+      </c>
+      <c r="D2" t="n">
+        <v>33009.48769633158</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.17336</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5866</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.39098</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>(6771.32, 7944.68)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(9216.28, 9782.42)</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>(9977.72, 10569.76)</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>(10864.16, 11415.4)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>(11610.62, 12197.22)</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>(13468.52, 13859.56)</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>(14054.72, 14463.24)</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>(14757.6, 15124.92)</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>(15320.16, 15711.14)</t>
         </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>44324.33381080627</v>
+      </c>
+      <c r="C5" t="n">
+        <v>43203.36298370361</v>
+      </c>
+      <c r="D5" t="n">
+        <v>42589.96334838867</v>
       </c>
     </row>
   </sheetData>

--- a/graphs/STM32F/bubble_sort/bubble_sort.xlsx
+++ b/graphs/STM32F/bubble_sort/bubble_sort.xlsx
@@ -6,14 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="BS CF_DR" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="BS CF_DC" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="BS CC_DR" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="BS CC_DC" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="BS_no CF_DR" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="BS_no CF_DC" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="BS_no CC_DR" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="BS_no CC_DC" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="data_RAM code_FLASH" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="data_CCM code_FLASH" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="data_RAM code_CCM" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="data_CCM code_CCM" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -489,13 +485,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15264.0800695675</v>
+        <v>15264</v>
       </c>
       <c r="C2" t="n">
-        <v>25922.07840234243</v>
+        <v>25922</v>
       </c>
       <c r="D2" t="n">
-        <v>33000.71999170312</v>
+        <v>33001</v>
       </c>
     </row>
     <row r="3">
@@ -543,13 +539,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13300.08141517639</v>
+        <v>13.3</v>
       </c>
       <c r="C5" t="n">
-        <v>13907.55797195434</v>
+        <v>13.908</v>
       </c>
       <c r="D5" t="n">
-        <v>15832.22741889954</v>
+        <v>15.832</v>
       </c>
     </row>
   </sheetData>
@@ -595,13 +591,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15272.31181735893</v>
+        <v>15272</v>
       </c>
       <c r="C2" t="n">
-        <v>25592.51411746152</v>
+        <v>25593</v>
       </c>
       <c r="D2" t="n">
-        <v>32572.1919878865</v>
+        <v>32572</v>
       </c>
     </row>
     <row r="3">
@@ -649,13 +645,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13354.62871170044</v>
+        <v>13.354</v>
       </c>
       <c r="C5" t="n">
-        <v>13799.9954624176</v>
+        <v>13.8</v>
       </c>
       <c r="D5" t="n">
-        <v>15723.37880516052</v>
+        <v>15.723</v>
       </c>
     </row>
   </sheetData>
@@ -701,13 +697,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12960.0137481181</v>
+        <v>12960</v>
       </c>
       <c r="C2" t="n">
-        <v>25124.84573412728</v>
+        <v>25125</v>
       </c>
       <c r="D2" t="n">
-        <v>37359.25731425806</v>
+        <v>37359</v>
       </c>
     </row>
     <row r="3">
@@ -755,13 +751,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11294.18542098999</v>
+        <v>11.294</v>
       </c>
       <c r="C5" t="n">
-        <v>10962.62343978882</v>
+        <v>10.963</v>
       </c>
       <c r="D5" t="n">
-        <v>10893.51112174988</v>
+        <v>10.893</v>
       </c>
     </row>
   </sheetData>
@@ -807,13 +803,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12238.46470896002</v>
+        <v>12238</v>
       </c>
       <c r="C2" t="n">
-        <v>23629.4703790612</v>
+        <v>23629</v>
       </c>
       <c r="D2" t="n">
-        <v>34975.37064636686</v>
+        <v>34975</v>
       </c>
     </row>
     <row r="3">
@@ -861,437 +857,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12290.55161476135</v>
+        <v>12.29</v>
       </c>
       <c r="C5" t="n">
-        <v>11868.13779258728</v>
+        <v>11.868</v>
       </c>
       <c r="D5" t="n">
-        <v>11740.39251708984</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>intensity</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>12969.08806880125</v>
-      </c>
-      <c r="C2" t="n">
-        <v>24256.71469408482</v>
-      </c>
-      <c r="D2" t="n">
-        <v>35152.42749852557</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>runtime</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1.10376</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.56614</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.39104</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>timestamp</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>(2725.36, 3829.12)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>(9216.28, 9782.42)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>(13468.52, 13859.56)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>energy</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>47238.71013450623</v>
-      </c>
-      <c r="C5" t="n">
-        <v>45317.89830780029</v>
-      </c>
-      <c r="D5" t="n">
-        <v>45361.81732177735</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>intensity</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>12515.04833303891</v>
-      </c>
-      <c r="C2" t="n">
-        <v>23737.43253771932</v>
-      </c>
-      <c r="D2" t="n">
-        <v>34187.15324876218</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>runtime</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1.15382</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.59204</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.40852</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>timestamp</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>(4024.4, 5178.22)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>(9977.72, 10569.76)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>(14054.72, 14463.24)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>energy</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>47652.37312316895</v>
-      </c>
-      <c r="C5" t="n">
-        <v>46376.58154678345</v>
-      </c>
-      <c r="D5" t="n">
-        <v>46088.24828910827</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>intensity</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>11816.03971790346</v>
-      </c>
-      <c r="C2" t="n">
-        <v>23376.53726376104</v>
-      </c>
-      <c r="D2" t="n">
-        <v>34376.51308432106</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>runtime</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1.10322</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.55124</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.36732</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>timestamp</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>(5472.76, 6575.98)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>(10864.16, 11415.4)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>(14757.6, 15124.92)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>energy</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>43017.78141403199</v>
-      </c>
-      <c r="C5" t="n">
-        <v>42524.07192420959</v>
-      </c>
-      <c r="D5" t="n">
-        <v>41669.69659423827</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>intensity</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>11447.14009878037</v>
-      </c>
-      <c r="C2" t="n">
-        <v>22318.32283818596</v>
-      </c>
-      <c r="D2" t="n">
-        <v>33009.48769633158</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>runtime</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1.17336</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.39098</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>timestamp</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>(6771.32, 7944.68)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>(11610.62, 12197.22)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>(15320.16, 15711.14)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>energy</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>44324.33381080627</v>
-      </c>
-      <c r="C5" t="n">
-        <v>43203.36298370361</v>
-      </c>
-      <c r="D5" t="n">
-        <v>42589.96334838867</v>
+        <v>11.74</v>
       </c>
     </row>
   </sheetData>

--- a/graphs/STM32F/bubble_sort/bubble_sort.xlsx
+++ b/graphs/STM32F/bubble_sort/bubble_sort.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="data_RAM code_FLASH" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="data_CCM code_FLASH" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="data_RAM code_CCM" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="data_CCM code_CCM" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="data_RAM-code_FLASH" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="data_CCM-code_FLASH" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="data_RAM-code_CCM" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="data_CCM-code_CCM" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
